--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TNM Primary Tumor Categories</t>
+    <t>TNM Primary Tumor Categories Value Set</t>
   </si>
   <si>
     <t>Status</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -83,9 +83,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>TNM Primary Tumor Categories Value Set</t>
-  </si>
-  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -101,7 +98,7 @@
     <t>ValueSet URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-tnm-primary-tumor-category-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-tnm-primary-tumor-category-vs</t>
   </si>
   <si>
     <t>Operation</t>
@@ -357,27 +354,27 @@
         <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -399,12 +396,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -429,7 +426,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -437,13 +434,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -456,10 +453,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -484,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -492,13 +489,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>31</v>
-      </c>
       <c r="C2" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -511,10 +508,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
+++ b/ValueSet-onconova-vs-tnm-primary-tumor-categories.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
